--- a/diet_problem/nutrition_data_modified.xlsx
+++ b/diet_problem/nutrition_data_modified.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,220 +473,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Big Mac</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>479</v>
+        <v>390</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>5.45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Quarter Pounder</t>
+          <t>Big Mac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="C3" t="n">
-        <v>32.4</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>4.95</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vegetable Burger</t>
+          <t>Quarter Pounder</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341</v>
+        <v>517</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7</v>
+        <v>32.4</v>
       </c>
       <c r="D4" t="n">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>40.4</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>French Fries</t>
+          <t>Vegetable Burger</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>11.7</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>10.6</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Salad</t>
+          <t>French Fries</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>425</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
         <v>54</v>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.95</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lowfat Milk</t>
+          <t>Salad</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Coca Cola</t>
+          <t>Lowfat Milk</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Big Mac Menu</t>
+          <t>Coca Cola</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1202.4</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
-        <v>31.3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>158.5</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>8.949999999999999</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quarter Pounder Menu</t>
+          <t>Big Mac Menu</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1240.4</v>
+        <v>1202.4</v>
       </c>
       <c r="C10" t="n">
-        <v>38.7</v>
+        <v>31.3</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7</v>
+        <v>48.7</v>
       </c>
       <c r="E10" t="n">
-        <v>154.9</v>
+        <v>158.5</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -698,50 +698,75 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Minimum Requirement</t>
+          <t>Quarter Pounder Menu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3000</v>
+        <v>1240.4</v>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>38.7</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>51.7</v>
       </c>
       <c r="E11" t="n">
-        <v>375</v>
+        <v>154.9</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Minimum Requirement</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>375</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Maximum Allowance</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>117</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/diet_problem/nutrition_data_modified.xlsx
+++ b/diet_problem/nutrition_data_modified.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,220 +473,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Big Mac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390</v>
+        <v>479</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Big Mac</t>
+          <t>Quarter Pounder</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="C3" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D3" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
-        <v>22</v>
-      </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>40.4</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>5.45</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quarter Pounder</t>
+          <t>Vegetable Burger</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="C4" t="n">
-        <v>32.4</v>
+        <v>11.7</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="E4" t="n">
-        <v>40.4</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>4.95</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vegetable Burger</t>
+          <t>French Fries</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>341</v>
+        <v>425</v>
       </c>
       <c r="C5" t="n">
-        <v>11.7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>10.6</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French Fries</t>
+          <t>Salad</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>21</v>
-      </c>
-      <c r="E6" t="n">
-        <v>54</v>
-      </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salad</t>
+          <t>Lowfat Milk</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lowfat Milk</t>
+          <t>Coca Cola</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Coca Cola</t>
+          <t>Big Mac Menu</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>184</v>
+        <v>1202.4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="E9" t="n">
-        <v>46</v>
+        <v>158.5</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Big Mac Menu</t>
+          <t>Quarter Pounder Menu</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1202.4</v>
+        <v>1240.4</v>
       </c>
       <c r="C10" t="n">
-        <v>31.3</v>
+        <v>38.7</v>
       </c>
       <c r="D10" t="n">
-        <v>48.7</v>
+        <v>51.7</v>
       </c>
       <c r="E10" t="n">
-        <v>158.5</v>
+        <v>154.9</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -698,75 +698,50 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Quarter Pounder Menu</t>
+          <t>Minimum Requirement</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1240.4</v>
+        <v>3000</v>
       </c>
       <c r="C11" t="n">
-        <v>38.7</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>51.7</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>154.9</v>
+        <v>375</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.949999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Minimum Requirement</t>
+          <t>Maximum Allowance</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E12" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Maximum Allowance</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>117</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/diet_problem/nutrition_data_modified.xlsx
+++ b/diet_problem/nutrition_data_modified.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,220 +473,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Big Mac</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>479</v>
+        <v>300</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>5.45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Quarter Pounder</t>
+          <t>Big Mac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="C3" t="n">
-        <v>32.4</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>4.95</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vegetable Burger</t>
+          <t>Quarter Pounder</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341</v>
+        <v>517</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7</v>
+        <v>32.4</v>
       </c>
       <c r="D4" t="n">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>40.4</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>French Fries</t>
+          <t>Vegetable Burger</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>11.7</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>10.6</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Salad</t>
+          <t>French Fries</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>425</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
         <v>54</v>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.95</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lowfat Milk</t>
+          <t>Salad</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Coca Cola</t>
+          <t>Lowfat Milk</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Big Mac Menu</t>
+          <t>Coca Cola</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1202.4</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
-        <v>31.3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>158.5</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>8.949999999999999</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quarter Pounder Menu</t>
+          <t>Big Mac Menu</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1240.4</v>
+        <v>1202.4</v>
       </c>
       <c r="C10" t="n">
-        <v>38.7</v>
+        <v>31.3</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7</v>
+        <v>48.7</v>
       </c>
       <c r="E10" t="n">
-        <v>154.9</v>
+        <v>158.5</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -698,50 +698,75 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Minimum Requirement</t>
+          <t>Quarter Pounder Menu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3000</v>
+        <v>1240.4</v>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>38.7</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>51.7</v>
       </c>
       <c r="E11" t="n">
-        <v>375</v>
+        <v>154.9</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Minimum Requirement</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>375</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Maximum Allowance</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>117</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/diet_problem/nutrition_data_modified.xlsx
+++ b/diet_problem/nutrition_data_modified.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,220 +473,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>Big Mac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>479</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Big Mac</t>
+          <t>Quarter Pounder</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>479</v>
+        <v>517</v>
       </c>
       <c r="C3" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="D3" t="n">
         <v>25</v>
       </c>
-      <c r="D3" t="n">
-        <v>22</v>
-      </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>40.4</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>5.45</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Quarter Pounder</t>
+          <t>Vegetable Burger</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517</v>
+        <v>341</v>
       </c>
       <c r="C4" t="n">
-        <v>32.4</v>
+        <v>11.7</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>10.6</v>
       </c>
       <c r="E4" t="n">
-        <v>40.4</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>4.95</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vegetable Burger</t>
+          <t>French Fries</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>341</v>
+        <v>425</v>
       </c>
       <c r="C5" t="n">
-        <v>11.7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>10.6</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>French Fries</t>
+          <t>Salad</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>425</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
-        <v>21</v>
-      </c>
-      <c r="E6" t="n">
-        <v>54</v>
-      </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>1.95</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Salad</t>
+          <t>Lowfat Milk</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lowfat Milk</t>
+          <t>Coca Cola</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>184</v>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Coca Cola</t>
+          <t>Big Mac Menu</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>184</v>
+        <v>1202.4</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>48.7</v>
       </c>
       <c r="E9" t="n">
-        <v>46</v>
+        <v>158.5</v>
       </c>
       <c r="F9" t="n">
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.75</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Big Mac Menu</t>
+          <t>Quarter Pounder Menu</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1202.4</v>
+        <v>1240.4</v>
       </c>
       <c r="C10" t="n">
-        <v>31.3</v>
+        <v>38.7</v>
       </c>
       <c r="D10" t="n">
-        <v>48.7</v>
+        <v>51.7</v>
       </c>
       <c r="E10" t="n">
-        <v>158.5</v>
+        <v>154.9</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -698,75 +698,50 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Quarter Pounder Menu</t>
+          <t>Minimum Requirement</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1240.4</v>
+        <v>3000</v>
       </c>
       <c r="C11" t="n">
-        <v>38.7</v>
+        <v>65</v>
       </c>
       <c r="D11" t="n">
-        <v>51.7</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>154.9</v>
+        <v>375</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.949999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Minimum Requirement</t>
+          <t>Maximum Allowance</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E12" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Maximum Allowance</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>117</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/diet_problem/nutrition_data_modified.xlsx
+++ b/diet_problem/nutrition_data_modified.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,220 +473,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Big Mac</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>479</v>
+        <v>350</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>31.99</v>
       </c>
       <c r="D2" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>5.45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Quarter Pounder</t>
+          <t>Big Mac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="C3" t="n">
-        <v>32.4</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>40.4</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>4.95</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vegetable Burger</t>
+          <t>Quarter Pounder</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>341</v>
+        <v>517</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7</v>
+        <v>32.4</v>
       </c>
       <c r="D4" t="n">
-        <v>10.6</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>40.4</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>French Fries</t>
+          <t>Vegetable Burger</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>425</v>
+        <v>341</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>11.7</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>10.6</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Salad</t>
+          <t>French Fries</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>425</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21</v>
+      </c>
+      <c r="E6" t="n">
         <v>54</v>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.95</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lowfat Milk</t>
+          <t>Salad</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Coca Cola</t>
+          <t>Lowfat Milk</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Big Mac Menu</t>
+          <t>Coca Cola</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1202.4</v>
+        <v>184</v>
       </c>
       <c r="C9" t="n">
-        <v>31.3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>158.5</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>8.949999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quarter Pounder Menu</t>
+          <t>Big Mac Menu</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1240.4</v>
+        <v>1202.4</v>
       </c>
       <c r="C10" t="n">
-        <v>38.7</v>
+        <v>31.3</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7</v>
+        <v>48.7</v>
       </c>
       <c r="E10" t="n">
-        <v>154.9</v>
+        <v>158.5</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
@@ -698,50 +698,75 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Minimum Requirement</t>
+          <t>Quarter Pounder Menu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3000</v>
+        <v>1240.4</v>
       </c>
       <c r="C11" t="n">
-        <v>65</v>
+        <v>38.7</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>51.7</v>
       </c>
       <c r="E11" t="n">
-        <v>375</v>
+        <v>154.9</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Minimum Requirement</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>375</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Maximum Allowance</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
         <v>117</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
         <v>0</v>
       </c>
     </row>
